--- a/DATA/UKSAF/Tougaard_Fit.xlsx
+++ b/DATA/UKSAF/Tougaard_Fit.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="O1s" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C1s" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S2p" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Survey XPS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Survey" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -409,6 +409,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
